--- a/downloaded_files/CMPS101_Tutorial-35448.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35448.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد عبدالرحمن عبدالعزيز السيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yousef Mohamed Abdelrahman Abdelaziz Elsayed Ahmed</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -598,8 +589,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="34.420625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.930625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.010625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.890625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35448.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35448.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>amr sabry abdullatif ibrahim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فراس شريف مصطفى ابراهيم حلابه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feras Sherif Moustafa Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1230105</x:t>
@@ -281,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -896,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6963177431</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45912.5989339468</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.5989339468</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1079,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45912.6020881944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1105,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45912.6020881944</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35448.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35448.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,12 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -272,7 +278,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -659,11 +665,9 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
+      <x:c r="D2" s="2" t="s"/>
       <x:c r="E2" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45929.4079482639</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -686,16 +690,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="D3" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -718,16 +722,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="D4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.5972893518</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -750,16 +754,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45912.5972893518</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,16 +786,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,16 +818,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,16 +850,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,16 +882,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,16 +914,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,16 +946,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,16 +978,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,16 +1010,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C13" s="2" t="s">
+      <x:c r="D13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.5989339468</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,16 +1042,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45912.5989339468</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1070,16 +1074,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.6020881944</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1100,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45912.6020881944</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35448.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35448.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,12 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد بهجت سيد محمدعبدالفتاح</x:t>
   </x:si>
   <x:si>
     <x:t>1240005</x:t>
@@ -278,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -578,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -665,9 +659,11 @@
       <x:c r="C2" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="s"/>
+      <x:c r="D2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.4079482639</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -690,16 +686,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45907.6677021181</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -722,16 +718,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6677021181</x:v>
+        <x:v>45912.5972893518</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -754,16 +750,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45912.5972893518</x:v>
+        <x:v>45907.6698167824</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -786,16 +782,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6698167824</x:v>
+        <x:v>45907.6655566319</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -818,16 +814,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6655566319</x:v>
+        <x:v>45907.6659865394</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -850,16 +846,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6659865394</x:v>
+        <x:v>45907.667399537</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -882,16 +878,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.667399537</x:v>
+        <x:v>45907.6646984606</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -914,16 +910,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6646984606</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -946,16 +942,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6650548611</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -978,16 +974,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6650548611</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1010,16 +1006,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45912.5989339468</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1042,16 +1038,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.5989339468</x:v>
+        <x:v>45907.6658175579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1074,16 +1070,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658175579</x:v>
+        <x:v>45912.6020881944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1100,38 +1096,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45912.6020881944</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
